--- a/python/test.xlsx
+++ b/python/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Z40\Documents\GitHub\OS_scheduling\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23055" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23060" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="18">
   <si>
     <t>Process</t>
   </si>
@@ -68,6 +73,12 @@
   <si>
     <t>RR TQ = 10</t>
   </si>
+  <si>
+    <t>Optimized RR TQ=5</t>
+  </si>
+  <si>
+    <t>RR TQ=5</t>
+  </si>
 </sst>
 </file>
 
@@ -114,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +143,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,34 +431,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BX32"/>
+  <dimension ref="A2:BX45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="BX44" sqref="BX44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="3.7109375" style="2" customWidth="1"/>
-    <col min="9" max="73" width="3.7109375" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="3.7265625" style="2" customWidth="1"/>
+    <col min="9" max="73" width="3.7265625" style="1"/>
     <col min="74" max="74" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="3.7109375" style="1"/>
+    <col min="75" max="16384" width="3.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,7 +855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -893,7 +907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,7 +962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,14 +1002,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1794,14 +1808,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +2042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2458,7 +2472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -2605,7 +2619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -2772,7 +2786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2949,12 +2963,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="2">
         <v>1</v>
       </c>
@@ -3173,7 +3187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -3391,7 +3405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -3585,7 +3599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -3733,7 +3747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -3901,7 +3915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -4079,7 +4093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4152,12 +4166,2056 @@
       <c r="BW32" s="2"/>
       <c r="BX32" s="2"/>
     </row>
+    <row r="33" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3</v>
+      </c>
+      <c r="G33" s="7">
+        <v>4</v>
+      </c>
+      <c r="H33" s="7">
+        <v>5</v>
+      </c>
+      <c r="I33" s="7">
+        <v>6</v>
+      </c>
+      <c r="J33" s="7">
+        <v>7</v>
+      </c>
+      <c r="K33" s="7">
+        <v>8</v>
+      </c>
+      <c r="L33" s="7">
+        <v>9</v>
+      </c>
+      <c r="M33" s="7">
+        <v>10</v>
+      </c>
+      <c r="N33" s="7">
+        <v>11</v>
+      </c>
+      <c r="O33" s="7">
+        <v>12</v>
+      </c>
+      <c r="P33" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>14</v>
+      </c>
+      <c r="R33" s="7">
+        <v>15</v>
+      </c>
+      <c r="S33" s="7">
+        <v>16</v>
+      </c>
+      <c r="T33" s="7">
+        <v>17</v>
+      </c>
+      <c r="U33" s="7">
+        <v>18</v>
+      </c>
+      <c r="V33" s="7">
+        <v>19</v>
+      </c>
+      <c r="W33" s="7">
+        <v>20</v>
+      </c>
+      <c r="X33" s="7">
+        <v>21</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>22</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>23</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>24</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>25</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>26</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>27</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>28</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>29</v>
+      </c>
+      <c r="AG33" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>31</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>32</v>
+      </c>
+      <c r="AJ33" s="7">
+        <v>33</v>
+      </c>
+      <c r="AK33" s="7">
+        <v>34</v>
+      </c>
+      <c r="AL33" s="7">
+        <v>35</v>
+      </c>
+      <c r="AM33" s="7">
+        <v>36</v>
+      </c>
+      <c r="AN33" s="7">
+        <v>37</v>
+      </c>
+      <c r="AO33" s="7">
+        <v>38</v>
+      </c>
+      <c r="AP33" s="7">
+        <v>39</v>
+      </c>
+      <c r="AQ33" s="7">
+        <v>40</v>
+      </c>
+      <c r="AR33" s="7">
+        <v>41</v>
+      </c>
+      <c r="AS33" s="7">
+        <v>42</v>
+      </c>
+      <c r="AT33" s="7">
+        <v>43</v>
+      </c>
+      <c r="AU33" s="7">
+        <v>44</v>
+      </c>
+      <c r="AV33" s="7">
+        <v>45</v>
+      </c>
+      <c r="AW33" s="7">
+        <v>46</v>
+      </c>
+      <c r="AX33" s="7">
+        <v>47</v>
+      </c>
+      <c r="AY33" s="7">
+        <v>48</v>
+      </c>
+      <c r="AZ33" s="7">
+        <v>49</v>
+      </c>
+      <c r="BA33" s="7">
+        <v>50</v>
+      </c>
+      <c r="BB33" s="7">
+        <v>51</v>
+      </c>
+      <c r="BC33" s="7">
+        <v>52</v>
+      </c>
+      <c r="BD33" s="7">
+        <v>53</v>
+      </c>
+      <c r="BE33" s="7">
+        <v>54</v>
+      </c>
+      <c r="BF33" s="7">
+        <v>55</v>
+      </c>
+      <c r="BG33" s="7">
+        <v>56</v>
+      </c>
+      <c r="BH33" s="7">
+        <v>57</v>
+      </c>
+      <c r="BI33" s="7">
+        <v>58</v>
+      </c>
+      <c r="BJ33" s="7">
+        <v>59</v>
+      </c>
+      <c r="BK33" s="7">
+        <v>60</v>
+      </c>
+      <c r="BL33" s="7">
+        <v>61</v>
+      </c>
+      <c r="BM33" s="7">
+        <v>62</v>
+      </c>
+      <c r="BN33" s="7">
+        <v>63</v>
+      </c>
+      <c r="BO33" s="7">
+        <v>64</v>
+      </c>
+      <c r="BP33" s="7">
+        <v>65</v>
+      </c>
+      <c r="BQ33" s="7">
+        <v>66</v>
+      </c>
+      <c r="BR33" s="7">
+        <v>67</v>
+      </c>
+      <c r="BS33" s="7">
+        <v>68</v>
+      </c>
+      <c r="BT33" s="7">
+        <v>69</v>
+      </c>
+      <c r="BU33" s="7"/>
+      <c r="BV33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX33" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="7">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3">
+        <v>22</v>
+      </c>
+      <c r="J34" s="3">
+        <v>21</v>
+      </c>
+      <c r="K34" s="3">
+        <v>20</v>
+      </c>
+      <c r="L34" s="3">
+        <v>19</v>
+      </c>
+      <c r="M34" s="3">
+        <v>18</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV34" s="3">
+        <v>17</v>
+      </c>
+      <c r="AW34" s="3">
+        <v>16</v>
+      </c>
+      <c r="AX34" s="3">
+        <v>15</v>
+      </c>
+      <c r="AY34" s="3">
+        <v>14</v>
+      </c>
+      <c r="AZ34" s="3">
+        <v>13</v>
+      </c>
+      <c r="BA34" s="3">
+        <v>12</v>
+      </c>
+      <c r="BB34" s="3">
+        <v>11</v>
+      </c>
+      <c r="BC34" s="3">
+        <v>10</v>
+      </c>
+      <c r="BD34" s="3">
+        <v>9</v>
+      </c>
+      <c r="BE34" s="3">
+        <v>8</v>
+      </c>
+      <c r="BF34" s="3">
+        <v>7</v>
+      </c>
+      <c r="BG34" s="3">
+        <v>6</v>
+      </c>
+      <c r="BH34" s="3">
+        <v>5</v>
+      </c>
+      <c r="BI34" s="3">
+        <v>4</v>
+      </c>
+      <c r="BJ34" s="3">
+        <v>3</v>
+      </c>
+      <c r="BK34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS34" s="3">
+        <v>2</v>
+      </c>
+      <c r="BT34" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV34" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW34" s="1">
+        <v>42</v>
+      </c>
+      <c r="BX34" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7">
+        <v>18</v>
+      </c>
+      <c r="C35" s="7">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="3">
+        <v>18</v>
+      </c>
+      <c r="O35" s="3">
+        <v>17</v>
+      </c>
+      <c r="P35" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>15</v>
+      </c>
+      <c r="R35" s="3">
+        <v>14</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>13</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>12</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AU35" s="3">
+        <v>9</v>
+      </c>
+      <c r="AV35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK35" s="3">
+        <v>8</v>
+      </c>
+      <c r="BL35" s="3">
+        <v>7</v>
+      </c>
+      <c r="BM35" s="3">
+        <v>6</v>
+      </c>
+      <c r="BN35" s="3">
+        <v>5</v>
+      </c>
+      <c r="BO35" s="3">
+        <v>4</v>
+      </c>
+      <c r="BP35" s="3">
+        <v>3</v>
+      </c>
+      <c r="BQ35" s="3">
+        <v>2</v>
+      </c>
+      <c r="BR35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>10</v>
+      </c>
+      <c r="BW35" s="1">
+        <v>44</v>
+      </c>
+      <c r="BX35" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="3">
+        <v>9</v>
+      </c>
+      <c r="T36" s="3">
+        <v>8</v>
+      </c>
+      <c r="U36" s="3">
+        <v>7</v>
+      </c>
+      <c r="V36" s="3">
+        <v>6</v>
+      </c>
+      <c r="W36" s="3">
+        <v>5</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV36" s="1">
+        <v>15</v>
+      </c>
+      <c r="BW36" s="1">
+        <v>20</v>
+      </c>
+      <c r="BX36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7">
+        <v>10</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X37" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV37" s="1">
+        <v>20</v>
+      </c>
+      <c r="BW37" s="1">
+        <v>24</v>
+      </c>
+      <c r="BX37" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV38" s="1">
+        <v>25</v>
+      </c>
+      <c r="BW38" s="1">
+        <v>20</v>
+      </c>
+      <c r="BX38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3</v>
+      </c>
+      <c r="G40" s="7">
+        <v>4</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>6</v>
+      </c>
+      <c r="J40" s="7">
+        <v>7</v>
+      </c>
+      <c r="K40" s="7">
+        <v>8</v>
+      </c>
+      <c r="L40" s="7">
+        <v>9</v>
+      </c>
+      <c r="M40" s="7">
+        <v>10</v>
+      </c>
+      <c r="N40" s="7">
+        <v>11</v>
+      </c>
+      <c r="O40" s="7">
+        <v>12</v>
+      </c>
+      <c r="P40" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>14</v>
+      </c>
+      <c r="R40" s="7">
+        <v>15</v>
+      </c>
+      <c r="S40" s="7">
+        <v>16</v>
+      </c>
+      <c r="T40" s="7">
+        <v>17</v>
+      </c>
+      <c r="U40" s="7">
+        <v>18</v>
+      </c>
+      <c r="V40" s="7">
+        <v>19</v>
+      </c>
+      <c r="W40" s="7">
+        <v>20</v>
+      </c>
+      <c r="X40" s="7">
+        <v>21</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>22</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>23</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>24</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>25</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>26</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>27</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>28</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>29</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>31</v>
+      </c>
+      <c r="AI40" s="7">
+        <v>32</v>
+      </c>
+      <c r="AJ40" s="7">
+        <v>33</v>
+      </c>
+      <c r="AK40" s="7">
+        <v>34</v>
+      </c>
+      <c r="AL40" s="7">
+        <v>35</v>
+      </c>
+      <c r="AM40" s="7">
+        <v>36</v>
+      </c>
+      <c r="AN40" s="7">
+        <v>37</v>
+      </c>
+      <c r="AO40" s="7">
+        <v>38</v>
+      </c>
+      <c r="AP40" s="7">
+        <v>39</v>
+      </c>
+      <c r="AQ40" s="7">
+        <v>40</v>
+      </c>
+      <c r="AR40" s="7">
+        <v>41</v>
+      </c>
+      <c r="AS40" s="7">
+        <v>42</v>
+      </c>
+      <c r="AT40" s="7">
+        <v>43</v>
+      </c>
+      <c r="AU40" s="7">
+        <v>44</v>
+      </c>
+      <c r="AV40" s="7">
+        <v>45</v>
+      </c>
+      <c r="AW40" s="7">
+        <v>46</v>
+      </c>
+      <c r="AX40" s="7">
+        <v>47</v>
+      </c>
+      <c r="AY40" s="7">
+        <v>48</v>
+      </c>
+      <c r="AZ40" s="7">
+        <v>49</v>
+      </c>
+      <c r="BA40" s="7">
+        <v>50</v>
+      </c>
+      <c r="BB40" s="7">
+        <v>51</v>
+      </c>
+      <c r="BC40" s="7">
+        <v>52</v>
+      </c>
+      <c r="BD40" s="7">
+        <v>53</v>
+      </c>
+      <c r="BE40" s="7">
+        <v>54</v>
+      </c>
+      <c r="BF40" s="7">
+        <v>55</v>
+      </c>
+      <c r="BG40" s="7">
+        <v>56</v>
+      </c>
+      <c r="BH40" s="7">
+        <v>57</v>
+      </c>
+      <c r="BI40" s="7">
+        <v>58</v>
+      </c>
+      <c r="BJ40" s="7">
+        <v>59</v>
+      </c>
+      <c r="BK40" s="7">
+        <v>60</v>
+      </c>
+      <c r="BL40" s="7">
+        <v>61</v>
+      </c>
+      <c r="BM40" s="7">
+        <v>62</v>
+      </c>
+      <c r="BN40" s="7">
+        <v>63</v>
+      </c>
+      <c r="BO40" s="7">
+        <v>64</v>
+      </c>
+      <c r="BP40" s="7">
+        <v>65</v>
+      </c>
+      <c r="BQ40" s="7">
+        <v>66</v>
+      </c>
+      <c r="BR40" s="7">
+        <v>67</v>
+      </c>
+      <c r="BS40" s="7">
+        <v>68</v>
+      </c>
+      <c r="BT40" s="7">
+        <v>69</v>
+      </c>
+      <c r="BU40" s="7"/>
+      <c r="BV40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX40" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="7">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>5</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3">
+        <v>22</v>
+      </c>
+      <c r="J41" s="3">
+        <v>21</v>
+      </c>
+      <c r="K41" s="3">
+        <v>20</v>
+      </c>
+      <c r="L41" s="3">
+        <v>19</v>
+      </c>
+      <c r="M41" s="3">
+        <v>18</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>17</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>16</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>14</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>13</v>
+      </c>
+      <c r="AM41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA41" s="3">
+        <v>12</v>
+      </c>
+      <c r="BB41" s="3">
+        <v>11</v>
+      </c>
+      <c r="BC41" s="3">
+        <v>10</v>
+      </c>
+      <c r="BD41" s="3">
+        <v>9</v>
+      </c>
+      <c r="BE41" s="3">
+        <v>8</v>
+      </c>
+      <c r="BF41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK41" s="3">
+        <v>7</v>
+      </c>
+      <c r="BL41" s="3">
+        <v>6</v>
+      </c>
+      <c r="BM41" s="3">
+        <v>5</v>
+      </c>
+      <c r="BN41" s="3">
+        <v>4</v>
+      </c>
+      <c r="BO41" s="3">
+        <v>3</v>
+      </c>
+      <c r="BP41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS41" s="3">
+        <v>2</v>
+      </c>
+      <c r="BT41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV41" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW41" s="1">
+        <v>42</v>
+      </c>
+      <c r="BX41" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="7">
+        <v>18</v>
+      </c>
+      <c r="C42" s="7">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="3">
+        <v>18</v>
+      </c>
+      <c r="O42" s="3">
+        <v>17</v>
+      </c>
+      <c r="P42" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>15</v>
+      </c>
+      <c r="R42" s="3">
+        <v>14</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>13</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>12</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>11</v>
+      </c>
+      <c r="AP42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>9</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF42" s="3">
+        <v>8</v>
+      </c>
+      <c r="BG42" s="3">
+        <v>7</v>
+      </c>
+      <c r="BH42" s="3">
+        <v>6</v>
+      </c>
+      <c r="BI42" s="3">
+        <v>5</v>
+      </c>
+      <c r="BJ42" s="3">
+        <v>4</v>
+      </c>
+      <c r="BK42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP42" s="3">
+        <v>3</v>
+      </c>
+      <c r="BQ42" s="3">
+        <v>2</v>
+      </c>
+      <c r="BR42" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV42" s="1">
+        <v>10</v>
+      </c>
+      <c r="BW42" s="1">
+        <v>44</v>
+      </c>
+      <c r="BX42" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S43" s="3">
+        <v>9</v>
+      </c>
+      <c r="T43" s="3">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
+        <v>7</v>
+      </c>
+      <c r="V43" s="3">
+        <v>6</v>
+      </c>
+      <c r="W43" s="3">
+        <v>5</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR43" s="3">
+        <v>4</v>
+      </c>
+      <c r="AS43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AT43" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU43" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV43" s="1">
+        <v>15</v>
+      </c>
+      <c r="BW43" s="1">
+        <v>30</v>
+      </c>
+      <c r="BX43" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X44" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV44" s="3">
+        <v>5</v>
+      </c>
+      <c r="AW44" s="3">
+        <v>4</v>
+      </c>
+      <c r="AX44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AY44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AZ44" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV44" s="1">
+        <v>20</v>
+      </c>
+      <c r="BW44" s="1">
+        <v>34</v>
+      </c>
+      <c r="BX44" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7">
+        <v>5</v>
+      </c>
+      <c r="C45" s="7">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV45" s="1">
+        <v>25</v>
+      </c>
+      <c r="BW45" s="1">
+        <v>20</v>
+      </c>
+      <c r="BX45" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/python/test.xlsx
+++ b/python/test.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23060" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23060" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="26">
   <si>
     <t>Process</t>
   </si>
@@ -79,12 +80,36 @@
   <si>
     <t>RR TQ=5</t>
   </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>ORR</t>
+  </si>
+  <si>
+    <t>P1 (Cont)</t>
+  </si>
+  <si>
+    <t>P2 (Cont)</t>
+  </si>
+  <si>
+    <t>P3 (Cont)</t>
+  </si>
+  <si>
+    <t>MORR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +117,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +145,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -125,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +232,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BX45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="BX44" sqref="BX44"/>
@@ -6219,4 +6316,2183 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AJ73" sqref="AJ73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>11</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <v>16</v>
+      </c>
+      <c r="V7">
+        <v>17</v>
+      </c>
+      <c r="W7">
+        <v>18</v>
+      </c>
+      <c r="X7">
+        <v>19</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="Z7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13">
+        <v>16</v>
+      </c>
+      <c r="E11" s="13">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13">
+        <f>AVERAGE(C9:C11)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" ref="D12:E12" si="0">AVERAGE(D9:D11)</f>
+        <v>11</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <v>21</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13">
+        <v>9</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13">
+        <v>14</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="13">
+        <f>AVERAGE(C15:C17)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" ref="D18:E18" si="1">AVERAGE(D15:D17)</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>13</v>
+      </c>
+      <c r="S19">
+        <v>14</v>
+      </c>
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="U19">
+        <v>16</v>
+      </c>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <v>18</v>
+      </c>
+      <c r="X19">
+        <v>19</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>21</v>
+      </c>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13">
+        <v>9</v>
+      </c>
+      <c r="D21" s="13">
+        <v>5</v>
+      </c>
+      <c r="E21" s="13">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13">
+        <v>9</v>
+      </c>
+      <c r="D22" s="13">
+        <v>8</v>
+      </c>
+      <c r="E22" s="13">
+        <v>18</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13">
+        <v>10</v>
+      </c>
+      <c r="D23" s="13">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13">
+        <v>20</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(C21:C23)</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="2">AVERAGE(D21:D23)</f>
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>11</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>13</v>
+      </c>
+      <c r="S25">
+        <v>14</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <v>16</v>
+      </c>
+      <c r="V25">
+        <v>17</v>
+      </c>
+      <c r="W25">
+        <v>18</v>
+      </c>
+      <c r="X25">
+        <v>19</v>
+      </c>
+      <c r="Y25">
+        <v>20</v>
+      </c>
+      <c r="Z25">
+        <v>21</v>
+      </c>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <f>AVERAGE(C27:C29)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(D27:D29)</f>
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(E27:E29)</f>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>9</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>11</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+      <c r="R35">
+        <v>13</v>
+      </c>
+      <c r="S35">
+        <v>14</v>
+      </c>
+      <c r="T35">
+        <v>15</v>
+      </c>
+      <c r="U35">
+        <v>16</v>
+      </c>
+      <c r="V35">
+        <v>17</v>
+      </c>
+      <c r="W35">
+        <v>18</v>
+      </c>
+      <c r="X35">
+        <v>19</v>
+      </c>
+      <c r="Y35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>44</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>62</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <f>AVERAGE(C37:C39)</f>
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <f>AVERAGE(D37:D39)</f>
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <f>AVERAGE(E37:E39)</f>
+        <v>58.666666666666664</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <v>23</v>
+      </c>
+      <c r="I40">
+        <v>24</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>26</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>29</v>
+      </c>
+      <c r="O40">
+        <v>30</v>
+      </c>
+      <c r="P40">
+        <v>31</v>
+      </c>
+      <c r="Q40">
+        <v>32</v>
+      </c>
+      <c r="R40">
+        <v>33</v>
+      </c>
+      <c r="S40">
+        <v>34</v>
+      </c>
+      <c r="T40">
+        <v>35</v>
+      </c>
+      <c r="U40">
+        <v>36</v>
+      </c>
+      <c r="V40">
+        <v>37</v>
+      </c>
+      <c r="W40">
+        <v>38</v>
+      </c>
+      <c r="X40">
+        <v>39</v>
+      </c>
+      <c r="Y40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E41" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E43" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="15"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E44" s="20"/>
+      <c r="F44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>42</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+      <c r="I44">
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <v>45</v>
+      </c>
+      <c r="K44">
+        <v>46</v>
+      </c>
+      <c r="L44">
+        <v>47</v>
+      </c>
+      <c r="M44">
+        <v>48</v>
+      </c>
+      <c r="N44">
+        <v>49</v>
+      </c>
+      <c r="O44">
+        <v>50</v>
+      </c>
+      <c r="P44">
+        <v>51</v>
+      </c>
+      <c r="Q44">
+        <v>52</v>
+      </c>
+      <c r="R44">
+        <v>53</v>
+      </c>
+      <c r="S44">
+        <v>54</v>
+      </c>
+      <c r="T44">
+        <v>55</v>
+      </c>
+      <c r="U44">
+        <v>56</v>
+      </c>
+      <c r="V44">
+        <v>57</v>
+      </c>
+      <c r="W44">
+        <v>58</v>
+      </c>
+      <c r="X44">
+        <v>59</v>
+      </c>
+      <c r="Y44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E45" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E47" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="E48" s="20"/>
+      <c r="F48">
+        <v>61</v>
+      </c>
+      <c r="G48">
+        <v>62</v>
+      </c>
+      <c r="H48">
+        <v>63</v>
+      </c>
+      <c r="I48">
+        <v>64</v>
+      </c>
+      <c r="J48">
+        <v>65</v>
+      </c>
+      <c r="K48">
+        <v>66</v>
+      </c>
+      <c r="L48">
+        <v>67</v>
+      </c>
+      <c r="M48">
+        <v>68</v>
+      </c>
+      <c r="N48">
+        <v>69</v>
+      </c>
+      <c r="O48">
+        <v>70</v>
+      </c>
+      <c r="P48">
+        <v>71</v>
+      </c>
+      <c r="Q48">
+        <v>72</v>
+      </c>
+      <c r="R48">
+        <v>73</v>
+      </c>
+      <c r="S48">
+        <v>74</v>
+      </c>
+      <c r="T48">
+        <v>75</v>
+      </c>
+      <c r="U48">
+        <v>76</v>
+      </c>
+      <c r="V48">
+        <v>77</v>
+      </c>
+      <c r="W48">
+        <v>78</v>
+      </c>
+      <c r="X48">
+        <v>79</v>
+      </c>
+      <c r="Y48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E50" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E51" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>8</v>
+      </c>
+      <c r="N53">
+        <v>9</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53">
+        <v>11</v>
+      </c>
+      <c r="Q53">
+        <v>12</v>
+      </c>
+      <c r="R53">
+        <v>13</v>
+      </c>
+      <c r="S53">
+        <v>14</v>
+      </c>
+      <c r="T53">
+        <v>15</v>
+      </c>
+      <c r="U53">
+        <v>16</v>
+      </c>
+      <c r="V53">
+        <v>17</v>
+      </c>
+      <c r="W53">
+        <v>18</v>
+      </c>
+      <c r="X53">
+        <v>19</v>
+      </c>
+      <c r="Y53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B55" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <f>12+8+15</f>
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>70</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B56" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <f>9+10</f>
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>41</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B57" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <f>9+1+20</f>
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B58" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <f>AVERAGE(C55:C57)</f>
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <f>AVERAGE(D55:D57)</f>
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <f>AVERAGE(E55:E57)</f>
+        <v>55.333333333333336</v>
+      </c>
+      <c r="F58">
+        <v>21</v>
+      </c>
+      <c r="G58">
+        <v>22</v>
+      </c>
+      <c r="H58">
+        <v>23</v>
+      </c>
+      <c r="I58">
+        <v>24</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>26</v>
+      </c>
+      <c r="L58">
+        <v>27</v>
+      </c>
+      <c r="M58">
+        <v>28</v>
+      </c>
+      <c r="N58">
+        <v>29</v>
+      </c>
+      <c r="O58">
+        <v>30</v>
+      </c>
+      <c r="P58">
+        <v>31</v>
+      </c>
+      <c r="Q58">
+        <v>32</v>
+      </c>
+      <c r="R58">
+        <v>33</v>
+      </c>
+      <c r="S58">
+        <v>34</v>
+      </c>
+      <c r="T58">
+        <v>35</v>
+      </c>
+      <c r="U58">
+        <v>36</v>
+      </c>
+      <c r="V58">
+        <v>37</v>
+      </c>
+      <c r="W58">
+        <v>38</v>
+      </c>
+      <c r="X58">
+        <v>39</v>
+      </c>
+      <c r="Y58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E59" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E60" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="15"/>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E61" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E62" s="20"/>
+      <c r="F62">
+        <v>41</v>
+      </c>
+      <c r="G62">
+        <v>42</v>
+      </c>
+      <c r="H62">
+        <v>43</v>
+      </c>
+      <c r="I62">
+        <v>44</v>
+      </c>
+      <c r="J62">
+        <v>45</v>
+      </c>
+      <c r="K62">
+        <v>46</v>
+      </c>
+      <c r="L62">
+        <v>47</v>
+      </c>
+      <c r="M62">
+        <v>48</v>
+      </c>
+      <c r="N62">
+        <v>49</v>
+      </c>
+      <c r="O62">
+        <v>50</v>
+      </c>
+      <c r="P62">
+        <v>51</v>
+      </c>
+      <c r="Q62">
+        <v>52</v>
+      </c>
+      <c r="R62">
+        <v>53</v>
+      </c>
+      <c r="S62">
+        <v>54</v>
+      </c>
+      <c r="T62">
+        <v>55</v>
+      </c>
+      <c r="U62">
+        <v>56</v>
+      </c>
+      <c r="V62">
+        <v>57</v>
+      </c>
+      <c r="W62">
+        <v>58</v>
+      </c>
+      <c r="X62">
+        <v>59</v>
+      </c>
+      <c r="Y62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E63" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="15"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E64" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+    </row>
+    <row r="65" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="E65" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+    </row>
+    <row r="66" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="E66" s="20"/>
+      <c r="F66">
+        <v>61</v>
+      </c>
+      <c r="G66">
+        <v>62</v>
+      </c>
+      <c r="H66">
+        <v>63</v>
+      </c>
+      <c r="I66">
+        <v>64</v>
+      </c>
+      <c r="J66">
+        <v>65</v>
+      </c>
+      <c r="K66">
+        <v>66</v>
+      </c>
+      <c r="L66">
+        <v>67</v>
+      </c>
+      <c r="M66">
+        <v>68</v>
+      </c>
+      <c r="N66">
+        <v>69</v>
+      </c>
+      <c r="O66">
+        <v>70</v>
+      </c>
+      <c r="P66">
+        <v>71</v>
+      </c>
+      <c r="Q66">
+        <v>72</v>
+      </c>
+      <c r="R66">
+        <v>73</v>
+      </c>
+      <c r="S66">
+        <v>74</v>
+      </c>
+      <c r="T66">
+        <v>75</v>
+      </c>
+      <c r="U66">
+        <v>76</v>
+      </c>
+      <c r="V66">
+        <v>77</v>
+      </c>
+      <c r="W66">
+        <v>78</v>
+      </c>
+      <c r="X66">
+        <v>79</v>
+      </c>
+      <c r="Y66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="E67" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="15"/>
+    </row>
+    <row r="68" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="E68" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+    </row>
+    <row r="69" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="E69" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+    </row>
+    <row r="70" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+    </row>
+    <row r="71" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>